--- a/Timesheet_And_Invoice/Nov_2012/TimeSheet_Nov.xlsx
+++ b/Timesheet_And_Invoice/Nov_2012/TimeSheet_Nov.xlsx
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="15" uniqueCount="14">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="19" uniqueCount="18">
   <si>
     <t>Date</t>
   </si>
@@ -30,9 +30,6 @@
     <t>Total</t>
   </si>
   <si>
-    <t>5 hours</t>
-  </si>
-  <si>
     <t xml:space="preserve">Install and configure OSCAR 12.1  </t>
   </si>
   <si>
@@ -58,6 +55,21 @@
   </si>
   <si>
     <t>Chat session related to OSCAR backup script</t>
+  </si>
+  <si>
+    <t>Changes done to backup script and tested</t>
+  </si>
+  <si>
+    <t>2 hours</t>
+  </si>
+  <si>
+    <t>Generation of SSH keypair for root user, scp configuration done, cronjob scheduled for backup script  ( between 192.168.1.148 and 192.168.1.101)</t>
+  </si>
+  <si>
+    <t>1 hour</t>
+  </si>
+  <si>
+    <t>4 hours</t>
   </si>
 </sst>
 </file>
@@ -423,10 +435,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:D8"/>
+  <dimension ref="A1:D9"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C11" sqref="C11"/>
+      <selection activeCell="B20" sqref="B20"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
@@ -452,13 +464,13 @@
         <v>41230</v>
       </c>
       <c r="B2" s="4" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="C2" s="5" t="s">
-        <v>4</v>
+        <v>17</v>
       </c>
       <c r="D2">
-        <v>2000</v>
+        <v>1600</v>
       </c>
     </row>
     <row r="3" spans="1:4">
@@ -466,10 +478,10 @@
         <v>41231</v>
       </c>
       <c r="B3" s="4" t="s">
+        <v>5</v>
+      </c>
+      <c r="C3" s="5" t="s">
         <v>6</v>
-      </c>
-      <c r="C3" s="5" t="s">
-        <v>7</v>
       </c>
       <c r="D3">
         <v>1200</v>
@@ -480,10 +492,10 @@
         <v>41233</v>
       </c>
       <c r="B4" s="4" t="s">
+        <v>7</v>
+      </c>
+      <c r="C4" s="5" t="s">
         <v>8</v>
-      </c>
-      <c r="C4" s="5" t="s">
-        <v>9</v>
       </c>
       <c r="D4">
         <v>500</v>
@@ -491,13 +503,13 @@
     </row>
     <row r="5" spans="1:4">
       <c r="A5" s="6" t="s">
+        <v>9</v>
+      </c>
+      <c r="B5" s="4" t="s">
         <v>10</v>
       </c>
-      <c r="B5" s="4" t="s">
-        <v>11</v>
-      </c>
       <c r="C5" s="5" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="D5">
         <v>500</v>
@@ -508,20 +520,48 @@
         <v>41234</v>
       </c>
       <c r="B6" s="4" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="C6" s="5" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="D6">
         <v>200</v>
       </c>
     </row>
-    <row r="8" spans="1:4">
-      <c r="B8" s="3" t="s">
+    <row r="7" spans="1:4">
+      <c r="A7" s="6">
+        <v>41236</v>
+      </c>
+      <c r="B7" s="4" t="s">
+        <v>13</v>
+      </c>
+      <c r="C7" s="5" t="s">
+        <v>14</v>
+      </c>
+      <c r="D7">
+        <v>800</v>
+      </c>
+    </row>
+    <row r="8" spans="1:4" ht="30">
+      <c r="A8" s="6">
+        <v>41237</v>
+      </c>
+      <c r="B8" s="4" t="s">
+        <v>15</v>
+      </c>
+      <c r="C8" s="5" t="s">
+        <v>16</v>
+      </c>
+      <c r="D8">
+        <v>400</v>
+      </c>
+    </row>
+    <row r="9" spans="1:4">
+      <c r="B9" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="C8" s="5">
+      <c r="C9" s="5">
         <f>SUM(C2:C6)</f>
         <v>0</v>
       </c>

--- a/Timesheet_And_Invoice/Nov_2012/TimeSheet_Nov.xlsx
+++ b/Timesheet_And_Invoice/Nov_2012/TimeSheet_Nov.xlsx
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="19" uniqueCount="18">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="23" uniqueCount="18">
   <si>
     <t>Date</t>
   </si>
@@ -51,15 +51,6 @@
     <t>Discussion and Analysis related to OSCAR backup script</t>
   </si>
   <si>
-    <t>0.5 hour</t>
-  </si>
-  <si>
-    <t>Chat session related to OSCAR backup script</t>
-  </si>
-  <si>
-    <t>Changes done to backup script and tested</t>
-  </si>
-  <si>
     <t>2 hours</t>
   </si>
   <si>
@@ -70,6 +61,15 @@
   </si>
   <si>
     <t>4 hours</t>
+  </si>
+  <si>
+    <t>Changes done to backup script and tested 192.168.1.148</t>
+  </si>
+  <si>
+    <t>Changes done to backup script and tested in 10.0.1.16, Generation of SSH keypair for root user, scp configuration done, cronjob scheduled for backup script  ( between 10.0.1.16  and 10.0.1.15)</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> chat …</t>
   </si>
 </sst>
 </file>
@@ -435,10 +435,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:D9"/>
+  <dimension ref="A1:D10"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B20" sqref="B20"/>
+      <selection activeCell="B9" sqref="B9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
@@ -467,7 +467,7 @@
         <v>4</v>
       </c>
       <c r="C2" s="5" t="s">
-        <v>17</v>
+        <v>14</v>
       </c>
       <c r="D2">
         <v>1600</v>
@@ -517,16 +517,16 @@
     </row>
     <row r="6" spans="1:4">
       <c r="A6" s="6">
-        <v>41234</v>
+        <v>21</v>
       </c>
       <c r="B6" s="4" t="s">
-        <v>12</v>
+        <v>17</v>
       </c>
       <c r="C6" s="5" t="s">
-        <v>11</v>
-      </c>
-      <c r="D6">
-        <v>200</v>
+        <v>9</v>
+      </c>
+      <c r="D6" t="s">
+        <v>9</v>
       </c>
     </row>
     <row r="7" spans="1:4">
@@ -534,10 +534,10 @@
         <v>41236</v>
       </c>
       <c r="B7" s="4" t="s">
-        <v>13</v>
+        <v>15</v>
       </c>
       <c r="C7" s="5" t="s">
-        <v>14</v>
+        <v>11</v>
       </c>
       <c r="D7">
         <v>800</v>
@@ -548,22 +548,39 @@
         <v>41237</v>
       </c>
       <c r="B8" s="4" t="s">
-        <v>15</v>
+        <v>12</v>
       </c>
       <c r="C8" s="5" t="s">
-        <v>16</v>
+        <v>13</v>
       </c>
       <c r="D8">
         <v>400</v>
       </c>
     </row>
-    <row r="9" spans="1:4">
-      <c r="B9" s="3" t="s">
+    <row r="9" spans="1:4" ht="45">
+      <c r="A9" s="6">
+        <v>41238</v>
+      </c>
+      <c r="B9" s="4" t="s">
+        <v>16</v>
+      </c>
+      <c r="C9" s="5" t="s">
+        <v>11</v>
+      </c>
+      <c r="D9">
+        <v>800</v>
+      </c>
+    </row>
+    <row r="10" spans="1:4">
+      <c r="B10" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="C9" s="5">
+      <c r="C10" s="5">
         <f>SUM(C2:C6)</f>
         <v>0</v>
+      </c>
+      <c r="D10" t="s">
+        <v>9</v>
       </c>
     </row>
   </sheetData>

--- a/Timesheet_And_Invoice/Nov_2012/TimeSheet_Nov.xlsx
+++ b/Timesheet_And_Invoice/Nov_2012/TimeSheet_Nov.xlsx
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="23" uniqueCount="18">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="33" uniqueCount="20">
   <si>
     <t>Date</t>
   </si>
@@ -69,7 +69,13 @@
     <t>Changes done to backup script and tested in 10.0.1.16, Generation of SSH keypair for root user, scp configuration done, cronjob scheduled for backup script  ( between 10.0.1.16  and 10.0.1.15)</t>
   </si>
   <si>
-    <t xml:space="preserve"> chat …</t>
+    <t>DB dump taken in 10.0.1.15;  copied the DB to 10.0.1.15; created new DB and restored; copied /var/lib/OscarDocument/oscar_mcmaster/document directory from 10.0.1.15 to 10.0.1.16</t>
+  </si>
+  <si>
+    <t>1.0 hour</t>
+  </si>
+  <si>
+    <t>15.5 hours</t>
   </si>
 </sst>
 </file>
@@ -116,7 +122,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="7">
+  <cellXfs count="8">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
@@ -136,6 +142,7 @@
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -435,10 +442,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:D10"/>
+  <dimension ref="A1:F12"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B9" sqref="B9"/>
+      <selection activeCell="C18" sqref="C18"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
@@ -448,7 +455,7 @@
     <col min="3" max="3" width="17.42578125" style="5" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:4" s="1" customFormat="1">
+    <row r="1" spans="1:6" s="1" customFormat="1">
       <c r="A1" s="2" t="s">
         <v>0</v>
       </c>
@@ -459,7 +466,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="2" spans="1:4">
+    <row r="2" spans="1:6">
       <c r="A2" s="6">
         <v>41230</v>
       </c>
@@ -469,11 +476,11 @@
       <c r="C2" s="5" t="s">
         <v>14</v>
       </c>
-      <c r="D2">
-        <v>1600</v>
-      </c>
-    </row>
-    <row r="3" spans="1:4">
+      <c r="D2" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="3" spans="1:6">
       <c r="A3" s="6">
         <v>41231</v>
       </c>
@@ -483,11 +490,11 @@
       <c r="C3" s="5" t="s">
         <v>6</v>
       </c>
-      <c r="D3">
-        <v>1200</v>
-      </c>
-    </row>
-    <row r="4" spans="1:4">
+      <c r="D3" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="4" spans="1:6">
       <c r="A4" s="6">
         <v>41233</v>
       </c>
@@ -497,11 +504,11 @@
       <c r="C4" s="5" t="s">
         <v>8</v>
       </c>
-      <c r="D4">
-        <v>500</v>
-      </c>
-    </row>
-    <row r="5" spans="1:4">
+      <c r="D4" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="5" spans="1:6">
       <c r="A5" s="6" t="s">
         <v>9</v>
       </c>
@@ -509,83 +516,88 @@
         <v>10</v>
       </c>
       <c r="C5" s="5" t="s">
-        <v>8</v>
-      </c>
-      <c r="D5">
-        <v>500</v>
-      </c>
-    </row>
-    <row r="6" spans="1:4">
+        <v>18</v>
+      </c>
+      <c r="D5" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="6" spans="1:6">
       <c r="A6" s="6">
-        <v>21</v>
+        <v>41236</v>
       </c>
       <c r="B6" s="4" t="s">
+        <v>15</v>
+      </c>
+      <c r="C6" s="5" t="s">
+        <v>11</v>
+      </c>
+      <c r="D6" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="7" spans="1:6" ht="30">
+      <c r="A7" s="6">
+        <v>41237</v>
+      </c>
+      <c r="B7" s="4" t="s">
+        <v>12</v>
+      </c>
+      <c r="C7" s="5" t="s">
+        <v>13</v>
+      </c>
+      <c r="D7" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="8" spans="1:6" ht="45">
+      <c r="A8" s="6">
+        <v>41238</v>
+      </c>
+      <c r="B8" s="4" t="s">
+        <v>16</v>
+      </c>
+      <c r="C8" s="5" t="s">
+        <v>11</v>
+      </c>
+      <c r="D8" t="s">
+        <v>9</v>
+      </c>
+      <c r="F8" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="9" spans="1:6" ht="30">
+      <c r="A9" s="6">
+        <v>41241</v>
+      </c>
+      <c r="B9" s="4" t="s">
         <v>17</v>
       </c>
-      <c r="C6" s="5" t="s">
-        <v>9</v>
-      </c>
-      <c r="D6" t="s">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="7" spans="1:4">
-      <c r="A7" s="6">
-        <v>41236</v>
-      </c>
-      <c r="B7" s="4" t="s">
-        <v>15</v>
-      </c>
-      <c r="C7" s="5" t="s">
-        <v>11</v>
-      </c>
-      <c r="D7">
-        <v>800</v>
-      </c>
-    </row>
-    <row r="8" spans="1:4" ht="30">
-      <c r="A8" s="6">
-        <v>41237</v>
-      </c>
-      <c r="B8" s="4" t="s">
-        <v>12</v>
-      </c>
-      <c r="C8" s="5" t="s">
+      <c r="C9" s="5" t="s">
         <v>13</v>
       </c>
-      <c r="D8">
-        <v>400</v>
-      </c>
-    </row>
-    <row r="9" spans="1:4" ht="45">
-      <c r="A9" s="6">
-        <v>41238</v>
-      </c>
-      <c r="B9" s="4" t="s">
-        <v>16</v>
-      </c>
-      <c r="C9" s="5" t="s">
-        <v>11</v>
-      </c>
-      <c r="D9">
-        <v>800</v>
-      </c>
-    </row>
-    <row r="10" spans="1:4">
-      <c r="B10" s="3" t="s">
+      <c r="D9" t="s">
+        <v>9</v>
+      </c>
+      <c r="F9" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="12" spans="1:6">
+      <c r="B12" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="C10" s="5">
-        <f>SUM(C2:C6)</f>
-        <v>0</v>
-      </c>
-      <c r="D10" t="s">
+      <c r="C12" s="1" t="s">
+        <v>19</v>
+      </c>
+      <c r="D12" s="7" t="s">
         <v>9</v>
       </c>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup orientation="portrait" verticalDpi="0" r:id="rId1"/>
+  <pageSetup orientation="portrait" r:id="rId1"/>
 </worksheet>
 </file>
 
